--- a/PW/day_temp.xlsx
+++ b/PW/day_temp.xlsx
@@ -180,14 +180,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="5"/>
+            <c:order val="6"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.6882327209098863E-2"/>
-                  <c:y val="0.2292548848060659"/>
+                  <c:x val="0.17453565179352581"/>
+                  <c:y val="-0.51317913385826774"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.000000000" sourceLinked="0"/>
@@ -222,10 +222,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -297,39 +297,57 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>28</c:v>
@@ -374,10 +392,28 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,6 +502,8 @@
         <c:axId val="576757760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1463,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1487,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -1495,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -1503,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
@@ -1511,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
@@ -1519,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
@@ -1535,7 +1573,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
@@ -1543,7 +1581,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
@@ -1663,7 +1701,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
@@ -1671,6 +1709,144 @@
         <v>23</v>
       </c>
       <c r="B25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B37">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B41">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B46">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B47">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B49">
         <v>27</v>
       </c>
     </row>
